--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_254.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_254.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2517482517482518</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>isophonics_89</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2316176470588235</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['F#', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(129.06, 134.2), (2.3, 7.04)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.36, 2.44), (13.56, 16.28)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:15.880484', '0:00:21.522933')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.162280701754386</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2363636363636364</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(10.634761, 15.986961)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(15.124263, 20.058503)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:00.680000', '0:00:02.980000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_208</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2036199095022624</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E'], ['A', 'E', 'A']]</t>
-        </is>
+          <t>jaah_9</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_14</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1525974025974026</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B'], ['E', 'B', 'E']]</t>
+          <t>[['C:7', 'F', 'F']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(55.374892, 60.67956), (0.421247, 3.953211)]</t>
+          <t>[['Eb:7', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(150.320748, 156.114126), (148.857891, 153.176802)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:51.690000', '0:00:55.720000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:22.010000', '0:00:26.600000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4869565217391305</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_45</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1515151515151515</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['G', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(14.450219, 23.088042)]</t>
+          <t>[['Bb', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(132.3, 137.48)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:29.965374', '0:00:34.307505')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:03.861000', '0:01:06.732000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1230180426462548</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D', 'D/b7', 'D/6', 'D/5', 'G']]</t>
-        </is>
+          <t>jaah_73</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_83</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04138321995464853</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'A/3', 'A/5', 'A', 'D']]</t>
+          <t>[['C:7', 'C:7', 'F:7', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(35.486462, 41.361111)]</t>
+          <t>[['A:7', 'A:7', 'D:7', 'D:7', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(7.831373, 12.39)]</t>
+          <t>[('0:00:24.250000', '0:00:28.150000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+          <t>[('0:00:02.900000', '0:00:08.700000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_229</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_192</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1332236842105263</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:maj/9', 'B', 'E']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_276</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3909774436090225</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'C']]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(22.599387, 29.576984)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(75.355124, 80.742154)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:07.205000', '0:00:18.764000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:07.834297', '0:00:15.380782')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.08188405797101449</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(18.07, 19.25)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(18.66, 20.74)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:09.380000', '0:02:14.740000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3860294117647059</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(27.0, 49.86)]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(61.683832, 71.056785)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:03.240000', '0:01:06.800000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:22.320000', '0:00:26.180000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2936507936507936</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'C', 'G', 'C', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_156</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_220</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4033613445378151</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'F', 'C', 'F', 'G', 'A']]</t>
+          <t>[['A', 'A', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(19.859433, 32.119569)]</t>
+          <t>[['D', 'D', 'D/7', 'D/6']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(16.17907, 34.801473)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:35.810988', '0:00:42.010716')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:00.325509', '0:00:03.756394')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1230650154798762</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(9.738333, 15.380782)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(52.680839, 55.420793)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:21.620000', '0:00:25.320000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:58.320000', '0:01:01.680000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09677419354838709</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(28.009637, 33.826235)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(39.724104, 43.706326)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D', 'A/3']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.743, 17.058)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(8.899614, 20.672131)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:11.940000', '0:01:07.800000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_192</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07605905006418484</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D/5', 'E/4', 'A']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(75.355124, 80.742154)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(5.544, 8.638)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:06.740000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_8</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_56</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.06503983059392962</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:7', 'F:7', 'Bb:maj6', 'G:min7']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Eb:7', 'Ab:maj6', 'Ab:maj6']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(50.56, 54.52)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(31.66, 37.05)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:02:30.200000', '0:02:34.940000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:02:28.100000', '0:02:32.600000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_33</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3726708074534161</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(21.62, 25.32)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(65.44, 69.18)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
